--- a/biology/Botanique/Thallochrysidaceae/Thallochrysidaceae.xlsx
+++ b/biology/Botanique/Thallochrysidaceae/Thallochrysidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Thallochrysidaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Chrysophyceae et de l'ordre des Thallochrysidales[1].
-Le genre Thallochrysis a été découvert en 1913 à Nieuport (Belgique) dans un fossé d'eau saumâtre dite « fosse à Ruppia »[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Thallochrysidaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Chrysophyceae et de l'ordre des Thallochrysidales.
+Le genre Thallochrysis a été découvert en 1913 à Nieuport (Belgique) dans un fossé d'eau saumâtre dite « fosse à Ruppia ». 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Thallochrysis, dérivé du grec θαλλός / thallós, « jeune pousse », et χρυσός / khrusos, « couleur or ».
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Thallochrysis se présente sous la « forme de petite masse floconneuses… constituées par des agrégats « thalloides »… de cellules généralement rectangulaires, polygonales ou arrondies »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Thallochrysis se présente sous la « forme de petite masse floconneuses… constituées par des agrégats « thalloides »… de cellules généralement rectangulaires, polygonales ou arrondies ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2022) :
 Thallochrysis  W.Conrad, 1914
 			Thallochrysis pascheri (agrégat pleurococcoide).
 </t>
